--- a/data_results/4WT_smallout.xlsx
+++ b/data_results/4WT_smallout.xlsx
@@ -8,89 +8,90 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robinson.beaucour\PythonProjects\OptiNonLineaireNE\data_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21DEC0C0-E6A0-473E-B2BE-43148F43BDA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FC8401-365A-443E-837B-403B4C373CDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7200" xr2:uid="{651B755C-DD22-4CBD-AFD0-49A4031AF0E2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7200" activeTab="1" xr2:uid="{651B755C-DD22-4CBD-AFD0-49A4031AF0E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="39" r:id="rId1"/>
-    <sheet name="Scalar" sheetId="38" r:id="rId2"/>
-    <sheet name="c" sheetId="37" r:id="rId3"/>
-    <sheet name="Charge" sheetId="36" r:id="rId4"/>
-    <sheet name="Charge_j" sheetId="35" r:id="rId5"/>
-    <sheet name="Charge_r" sheetId="34" r:id="rId6"/>
-    <sheet name="Charge_s" sheetId="33" r:id="rId7"/>
-    <sheet name="d" sheetId="32" r:id="rId8"/>
-    <sheet name="Debit_s" sheetId="31" r:id="rId9"/>
-    <sheet name="degree" sheetId="30" r:id="rId10"/>
-    <sheet name="demand" sheetId="29" r:id="rId11"/>
-    <sheet name="Elec_pompe" sheetId="28" r:id="rId12"/>
-    <sheet name="gamma" sheetId="27" r:id="rId13"/>
-    <sheet name="height" sheetId="26" r:id="rId14"/>
-    <sheet name="j" sheetId="25" r:id="rId15"/>
-    <sheet name="k" sheetId="24" r:id="rId16"/>
-    <sheet name="l" sheetId="23" r:id="rId17"/>
-    <sheet name="n" sheetId="22" r:id="rId18"/>
-    <sheet name="night" sheetId="21" r:id="rId19"/>
-    <sheet name="Noeud" sheetId="20" r:id="rId20"/>
-    <sheet name="Ordre_pompe" sheetId="19" r:id="rId21"/>
-    <sheet name="Perte_charge" sheetId="18" r:id="rId22"/>
-    <sheet name="phi" sheetId="17" r:id="rId23"/>
-    <sheet name="Ppompe" sheetId="16" r:id="rId24"/>
-    <sheet name="psi" sheetId="15" r:id="rId25"/>
-    <sheet name="Qpipe" sheetId="14" r:id="rId26"/>
-    <sheet name="Qpompe" sheetId="13" r:id="rId27"/>
-    <sheet name="Qpompe_inf" sheetId="12" r:id="rId28"/>
-    <sheet name="Qpompe_sup" sheetId="11" r:id="rId29"/>
-    <sheet name="r" sheetId="10" r:id="rId30"/>
-    <sheet name="Satisfaction_demande" sheetId="9" r:id="rId31"/>
-    <sheet name="Son" sheetId="8" r:id="rId32"/>
-    <sheet name="surface" sheetId="7" r:id="rId33"/>
-    <sheet name="t" sheetId="6" r:id="rId34"/>
-    <sheet name="tariff" sheetId="5" r:id="rId35"/>
-    <sheet name="v" sheetId="4" r:id="rId36"/>
-    <sheet name="vinit" sheetId="3" r:id="rId37"/>
-    <sheet name="vmax" sheetId="2" r:id="rId38"/>
-    <sheet name="vmin" sheetId="1" r:id="rId39"/>
+    <sheet name="Comments" sheetId="40" r:id="rId2"/>
+    <sheet name="Scalar" sheetId="38" r:id="rId3"/>
+    <sheet name="c" sheetId="37" r:id="rId4"/>
+    <sheet name="Charge" sheetId="36" r:id="rId5"/>
+    <sheet name="Charge_j" sheetId="35" r:id="rId6"/>
+    <sheet name="Charge_r" sheetId="34" r:id="rId7"/>
+    <sheet name="Charge_s" sheetId="33" r:id="rId8"/>
+    <sheet name="d" sheetId="32" r:id="rId9"/>
+    <sheet name="Debit_s" sheetId="31" r:id="rId10"/>
+    <sheet name="degree" sheetId="30" r:id="rId11"/>
+    <sheet name="demand" sheetId="29" r:id="rId12"/>
+    <sheet name="Elec_pompe" sheetId="28" r:id="rId13"/>
+    <sheet name="gamma" sheetId="27" r:id="rId14"/>
+    <sheet name="height" sheetId="26" r:id="rId15"/>
+    <sheet name="j" sheetId="25" r:id="rId16"/>
+    <sheet name="k" sheetId="24" r:id="rId17"/>
+    <sheet name="l" sheetId="23" r:id="rId18"/>
+    <sheet name="n" sheetId="22" r:id="rId19"/>
+    <sheet name="night" sheetId="21" r:id="rId20"/>
+    <sheet name="Noeud" sheetId="20" r:id="rId21"/>
+    <sheet name="Ordre_pompe" sheetId="19" r:id="rId22"/>
+    <sheet name="Perte_charge" sheetId="18" r:id="rId23"/>
+    <sheet name="phi" sheetId="17" r:id="rId24"/>
+    <sheet name="Ppompe" sheetId="16" r:id="rId25"/>
+    <sheet name="psi" sheetId="15" r:id="rId26"/>
+    <sheet name="Qpipe" sheetId="14" r:id="rId27"/>
+    <sheet name="Qpompe" sheetId="13" r:id="rId28"/>
+    <sheet name="Qpompe_inf" sheetId="12" r:id="rId29"/>
+    <sheet name="Qpompe_sup" sheetId="11" r:id="rId30"/>
+    <sheet name="r" sheetId="10" r:id="rId31"/>
+    <sheet name="Satisfaction_demande" sheetId="9" r:id="rId32"/>
+    <sheet name="Son" sheetId="8" r:id="rId33"/>
+    <sheet name="surface" sheetId="7" r:id="rId34"/>
+    <sheet name="t" sheetId="6" r:id="rId35"/>
+    <sheet name="tariff" sheetId="5" r:id="rId36"/>
+    <sheet name="v" sheetId="4" r:id="rId37"/>
+    <sheet name="vinit" sheetId="3" r:id="rId38"/>
+    <sheet name="vmax" sheetId="2" r:id="rId39"/>
+    <sheet name="vmin" sheetId="1" r:id="rId40"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'c'!$A$3:$A$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Charge!$A$3:$F$66</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Charge_j!$A$3:$F$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Charge_r!$A$3:$F$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Charge_s!$A$3:$H$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">d!$A$3:$A$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Debit_s!$A$3:$E$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">degree!$A$3:$A$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">demand!$A$3:$C$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Elec_pompe!$A$3:$G$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">gamma!$A$3:$C$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">height!$A$3:$B$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">j!$A$3:$A$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">k!$A$3:$B$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">l!$A$3:$B$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">n!$A$3:$A$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">night!$A$3:$A$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">Noeud!$A$3:$F$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">Ordre_pompe!$A$3:$G$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">Perte_charge!$A$3:$G$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">phi!$A$3:$D$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">Ppompe!$A$3:$G$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">psi!$A$3:$C$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">Qpipe!$A$3:$G$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="26" hidden="1">Qpompe!$A$3:$G$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="27" hidden="1">Qpompe_inf!$A$3:$G$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="28" hidden="1">Qpompe_sup!$A$3:$G$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="29" hidden="1">'r'!$A$3:$A$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="30" hidden="1">Satisfaction_demande!$A$3:$F$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">Son!$A$3:$G$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="32" hidden="1">surface!$A$3:$B$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="33" hidden="1">t!$A$3:$A$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="34" hidden="1">tariff!$A$3:$B$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="35" hidden="1">v!$A$3:$F$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="36" hidden="1">vinit!$A$3:$C$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="37" hidden="1">vmax!$A$3:$B$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="38" hidden="1">vmin!$A$3:$B$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'c'!$A$3:$A$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Charge!$A$3:$F$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Charge_j!$A$3:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Charge_r!$A$3:$F$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Charge_s!$A$3:$H$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">d!$A$3:$A$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Debit_s!$A$3:$E$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">degree!$A$3:$A$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">demand!$A$3:$C$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Elec_pompe!$A$3:$G$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">gamma!$A$3:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">height!$A$3:$B$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">j!$A$3:$A$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">k!$A$3:$B$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">l!$A$3:$B$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">n!$A$3:$A$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">night!$A$3:$A$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">Noeud!$A$3:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">Ordre_pompe!$A$3:$G$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">Perte_charge!$A$3:$G$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">phi!$A$3:$D$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">Ppompe!$A$3:$G$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">psi!$A$3:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="26" hidden="1">Qpipe!$A$3:$G$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="27" hidden="1">Qpompe!$A$3:$G$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="28" hidden="1">Qpompe_inf!$A$3:$G$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="29" hidden="1">Qpompe_sup!$A$3:$G$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="30" hidden="1">'r'!$A$3:$A$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">Satisfaction_demande!$A$3:$F$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="32" hidden="1">Son!$A$3:$G$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="33" hidden="1">surface!$A$3:$B$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="34" hidden="1">t!$A$3:$A$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="35" hidden="1">tariff!$A$3:$B$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="36" hidden="1">v!$A$3:$F$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="37" hidden="1">vinit!$A$3:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="38" hidden="1">vmax!$A$3:$B$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="39" hidden="1">vmin!$A$3:$B$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -102,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="145">
   <si>
     <t>vmin</t>
   </si>
@@ -532,6 +533,12 @@
   <si>
     <t>Aliased with n</t>
   </si>
+  <si>
+    <t>Commentaires</t>
+  </si>
+  <si>
+    <t>Résolution de 4WT_small. La solution est réalisable. La solution a un écart relatif avec la solution optimale inférieur à 10E-4.</t>
+  </si>
 </sst>
 </file>
 
@@ -896,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9653EF7A-62B7-46AC-94A4-B35AD57123EF}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1786,6 +1793,212 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A0FD91-2AC3-4A7A-A1AF-785A25C2F9CC}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2.1316282072803006E-14</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>-3.5728534581645154E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-1.4210854715202004E-14</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>-3.5733172957510837E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>7.1054273576010019E-15</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>-3.6377312205085289E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-2.8421709430404007E-14</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>-3.6375260379930018E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>-4.4370842999999997E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>-4.4370842999999997E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>-4.4370842999999997E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>-4.4370842999999997E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>-4.4370842999999997E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:E12" xr:uid="{488E1562-4AF8-47E4-AF0C-CE4FF459F77C}"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{22C43A58-F65E-4E11-BE1B-BF1EA484516B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC57A74C-0B61-4F2D-B980-1494A7A1C830}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1841,7 +2054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2B63A9-C292-4B5F-9EA9-B09D2DDA9F28}">
   <dimension ref="A1:C33"/>
   <sheetViews>
@@ -2218,7 +2431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98BB95D-6C22-4F07-A8DB-50510CACB042}">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -2898,7 +3111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C327EF06-BD36-4182-AE28-23D4D399FFA0}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -2967,7 +3180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D8506E-71B3-4BAC-8F13-B0EF635E2025}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -3059,7 +3272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5A9319-E44A-4DBF-B74E-45F467F667D7}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3110,7 +3323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB33E4DE-44BD-4FA3-8EAA-09E3D93480B1}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -3178,7 +3391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65763FF1-3764-4743-B9C9-5229BFF889B1}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -3270,7 +3483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E0F692-24C2-48F0-ABFC-DFCCD3C384AF}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -3346,7 +3559,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD1BBA5-9F37-4EC3-A9C3-B66834982302}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34864E95-BD03-4767-A258-73911B6F7D2D}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -3407,194 +3645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E247588D-A9BE-4F80-9119-1317CB331C59}">
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6">
-        <v>4.6089999999999999E-2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7">
-        <v>2.9159999999999998E-2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10">
-        <v>2.3808105144456775</v>
-      </c>
-      <c r="D10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14">
-        <v>4.6144999999999996</v>
-      </c>
-      <c r="C14">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{208301E2-9442-4438-8E19-05B5FA365682}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF89A56-14DF-41DA-A53C-CF5DD2D792FA}">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -4010,7 +4061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B57E0B-F317-4F4C-B53B-3C581DC26214}">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -4690,7 +4741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA449803-E6DA-45DC-8368-38C12E911487}">
   <dimension ref="A1:G57"/>
   <sheetViews>
@@ -5991,7 +6042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94B5462-56EB-44A3-9E35-640861999227}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -6209,7 +6260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4641426-8638-4F4E-8978-9E8BFC2859FB}">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -6889,7 +6940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0FEFD9-2F71-4B55-88EA-FFFFE3AD928B}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -6958,7 +7009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18253075-91B0-44B8-938D-AFFB238D4803}">
   <dimension ref="A1:G57"/>
   <sheetViews>
@@ -8259,7 +8310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8489ADAE-0FDF-4ED3-9E95-2C59654EA068}">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -8939,7 +8990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A680D55D-200D-4036-B8DA-350804BB4769}">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -9619,7 +9670,194 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E247588D-A9BE-4F80-9119-1317CB331C59}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6">
+        <v>4.6089999999999999E-2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7">
+        <v>2.9159999999999998E-2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>2.3808105144456775</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14">
+        <v>4.6144999999999996</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{208301E2-9442-4438-8E19-05B5FA365682}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06389D7B-98FB-4FA5-9F98-981857FDB06E}">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -10299,7 +10537,2745 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47420144-7A0E-4B46-BA30-AD0282346642}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:A7" xr:uid="{113FB8C6-29D6-4F3B-8DC1-BEBBC93C929B}"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{48C47EB2-49C8-4BA5-B1CF-3ED99ED12B2D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB2BD8E-7885-412B-851B-91487E80D0AD}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>90.17</v>
+      </c>
+      <c r="D4">
+        <v>90.169999999999987</v>
+      </c>
+      <c r="E4">
+        <v>90.17</v>
+      </c>
+      <c r="F4">
+        <v>-3.6335324596160797E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>-5</v>
+      </c>
+      <c r="D5">
+        <v>-5</v>
+      </c>
+      <c r="E5">
+        <v>-5</v>
+      </c>
+      <c r="F5">
+        <v>-3.6335324596160797E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>-3.67</v>
+      </c>
+      <c r="D6">
+        <v>-3.6700000000000017</v>
+      </c>
+      <c r="E6">
+        <v>-3.67</v>
+      </c>
+      <c r="F6">
+        <v>-3.6335324596160797E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>-6.5</v>
+      </c>
+      <c r="D7">
+        <v>-6.5</v>
+      </c>
+      <c r="E7">
+        <v>-6.5</v>
+      </c>
+      <c r="F7">
+        <v>-3.6335324596160797E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>-5.67</v>
+      </c>
+      <c r="D8">
+        <v>-5.6700000000000017</v>
+      </c>
+      <c r="E8">
+        <v>-5.67</v>
+      </c>
+      <c r="F8">
+        <v>-3.6335324596160797E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>-7.5</v>
+      </c>
+      <c r="D9">
+        <v>-7.5</v>
+      </c>
+      <c r="E9">
+        <v>-7.5</v>
+      </c>
+      <c r="F9">
+        <v>-3.6335324596160797E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>-3</v>
+      </c>
+      <c r="D10">
+        <v>-3</v>
+      </c>
+      <c r="E10">
+        <v>-3</v>
+      </c>
+      <c r="F10">
+        <v>-3.6335324596160797E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>-3</v>
+      </c>
+      <c r="D11">
+        <v>-3</v>
+      </c>
+      <c r="E11">
+        <v>-3</v>
+      </c>
+      <c r="F11">
+        <v>-3.6335324596160797E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>-2</v>
+      </c>
+      <c r="D12">
+        <v>-2</v>
+      </c>
+      <c r="E12">
+        <v>-2</v>
+      </c>
+      <c r="F12">
+        <v>-3.6335324596160797E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>55.17</v>
+      </c>
+      <c r="D13">
+        <v>55.17</v>
+      </c>
+      <c r="E13">
+        <v>55.17</v>
+      </c>
+      <c r="F13">
+        <v>-5.1314995538397495E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>-18</v>
+      </c>
+      <c r="D14">
+        <v>-17.999999999999915</v>
+      </c>
+      <c r="E14">
+        <v>-18</v>
+      </c>
+      <c r="F14">
+        <v>-4.2807634691293551E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2.8421709430404007E-14</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>-4.3412781382943175E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>-4.3883557753459888E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>-4.4370842999999997E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>-4.4370842999999997E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>-4.4370842999999997E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>-45</v>
+      </c>
+      <c r="D20">
+        <v>-45.000000000000028</v>
+      </c>
+      <c r="E20">
+        <v>-45</v>
+      </c>
+      <c r="F20">
+        <v>-4.4370842999999997E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>-51.67</v>
+      </c>
+      <c r="D21">
+        <v>-51.669999999999987</v>
+      </c>
+      <c r="E21">
+        <v>-51.67</v>
+      </c>
+      <c r="F21">
+        <v>-4.4370842999999997E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>86</v>
+      </c>
+      <c r="D22">
+        <v>86</v>
+      </c>
+      <c r="E22">
+        <v>86</v>
+      </c>
+      <c r="F22">
+        <v>-3.8452530467483551E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>-13.33</v>
+      </c>
+      <c r="D23">
+        <v>-13.329999999999956</v>
+      </c>
+      <c r="E23">
+        <v>-13.33</v>
+      </c>
+      <c r="F23">
+        <v>-3.8180482573225965E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>-25.5</v>
+      </c>
+      <c r="D24">
+        <v>-25.5</v>
+      </c>
+      <c r="E24">
+        <v>-25.5</v>
+      </c>
+      <c r="F24">
+        <v>-3.8180482573225965E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>-11</v>
+      </c>
+      <c r="D25">
+        <v>-10.999999999999972</v>
+      </c>
+      <c r="E25">
+        <v>-11</v>
+      </c>
+      <c r="F25">
+        <v>-3.818048257322299E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>-10</v>
+      </c>
+      <c r="D26">
+        <v>-10</v>
+      </c>
+      <c r="E26">
+        <v>-10</v>
+      </c>
+      <c r="F26">
+        <v>-3.818048257322299E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>-10</v>
+      </c>
+      <c r="D27">
+        <v>-10</v>
+      </c>
+      <c r="E27">
+        <v>-10</v>
+      </c>
+      <c r="F27">
+        <v>-3.818048257322299E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-11</v>
+      </c>
+      <c r="D28">
+        <v>-11</v>
+      </c>
+      <c r="E28">
+        <v>-11</v>
+      </c>
+      <c r="F28">
+        <v>-3.818048257322299E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-10.33</v>
+      </c>
+      <c r="D29">
+        <v>-10.329999999999984</v>
+      </c>
+      <c r="E29">
+        <v>-10.33</v>
+      </c>
+      <c r="F29">
+        <v>-3.818048257322299E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>-30.17</v>
+      </c>
+      <c r="D30">
+        <v>-30.170000000000016</v>
+      </c>
+      <c r="E30">
+        <v>-30.17</v>
+      </c>
+      <c r="F30">
+        <v>-3.818048257322299E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>99</v>
+      </c>
+      <c r="D31">
+        <v>99</v>
+      </c>
+      <c r="E31">
+        <v>99</v>
+      </c>
+      <c r="F31">
+        <v>-3.6335324596160797E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>-1</v>
+      </c>
+      <c r="D32">
+        <v>-1</v>
+      </c>
+      <c r="E32">
+        <v>-1</v>
+      </c>
+      <c r="F32">
+        <v>-3.6335324596160797E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>-8.5</v>
+      </c>
+      <c r="D33">
+        <v>-8.5</v>
+      </c>
+      <c r="E33">
+        <v>-8.5</v>
+      </c>
+      <c r="F33">
+        <v>-3.6335324596160797E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <v>-9.5</v>
+      </c>
+      <c r="D34">
+        <v>-9.5</v>
+      </c>
+      <c r="E34">
+        <v>-9.5</v>
+      </c>
+      <c r="F34">
+        <v>-3.6335324596160797E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35">
+        <v>-4</v>
+      </c>
+      <c r="D35">
+        <v>-4</v>
+      </c>
+      <c r="E35">
+        <v>-4</v>
+      </c>
+      <c r="F35">
+        <v>-3.6335324596160797E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36">
+        <v>-2.33</v>
+      </c>
+      <c r="D36">
+        <v>-2.3299999999999983</v>
+      </c>
+      <c r="E36">
+        <v>-2.33</v>
+      </c>
+      <c r="F36">
+        <v>-3.6335324596160797E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>-3.6335324596160797E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38">
+        <v>-1</v>
+      </c>
+      <c r="D38">
+        <v>-1</v>
+      </c>
+      <c r="E38">
+        <v>-1</v>
+      </c>
+      <c r="F38">
+        <v>-3.6335324596160797E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <v>-0.83</v>
+      </c>
+      <c r="D39">
+        <v>-0.82999999999999829</v>
+      </c>
+      <c r="E39">
+        <v>-0.83</v>
+      </c>
+      <c r="F39">
+        <v>-3.6335324596160797E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:F39" xr:uid="{66484FEE-57AD-4A8E-A1A8-2D79AAE6A0C0}"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F8C544D8-128B-488E-99CC-884698A19BCC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0D909F-AD99-40B4-B968-6D14F4C3C523}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.12531185816172649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.12229667070637884</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.12416089477809557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.12461788688062453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>-0.35496674399999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.1756494509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>-0.35496674399999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>-0.35496674399999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.1756494509</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.12531185816172649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.12229667070637884</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.12416089477809557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.12461788688062453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.1756494509</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.1756494509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>-0.35496674399999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>-0.35496674399999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>-0.35496674399999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.12531185816172649</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.12229667070637884</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>-0.29101849764068233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>-0.29100208303944014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>-0.35496674399999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>-0.35496674399999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>-0.35496674399999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.1756494509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.1756494509</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:G30" xr:uid="{BC43CD8D-6665-4024-A21A-46D492D0AA72}"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{7C3F9CD1-BD47-4386-AACC-5DAEAE6CAE29}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0C2865-8335-415B-932A-84831494D8DA}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:B7" xr:uid="{2920740B-729D-48E3-BD0F-EFCFF92EC5C7}"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6FC1DEE0-692F-432B-9FDA-380927E807F1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E512A8D9-A6A5-4F38-9403-FB6CBB887012}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:A12" xr:uid="{11FFBC6D-0C3B-4892-8512-F75F5FA865EF}"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{01AAA771-1FDC-4A8F-80CD-8AF0BCAAE88E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18777AF-99D4-4E67-A783-1869D9ABC60C}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>2.9159999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>2.9159999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>2.9159999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>2.9159999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>4.6089999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>4.6089999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>4.6089999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>4.6089999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>4.6089999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:B12" xr:uid="{1116C02E-8DF4-4591-B8C0-CF2C7B2C86A5}"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3BC56E1D-BF6B-4E50-B9FF-296BC5AA5C05}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C77284A-0324-4293-A49A-3BC63F17B9BD}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>117.78144069934325</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>131.34</v>
+      </c>
+      <c r="E5">
+        <v>300</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>127.67</v>
+      </c>
+      <c r="E6">
+        <v>300</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>121.17</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>115.5</v>
+      </c>
+      <c r="E8">
+        <v>300</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>108</v>
+      </c>
+      <c r="E9">
+        <v>300</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>105</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>102</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>300</v>
+      </c>
+      <c r="F12">
+        <v>3.6335324596160797E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13">
+        <v>9.2758933684390448E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>101.44885203803645</v>
+      </c>
+      <c r="E14">
+        <v>300</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>130.58061319628226</v>
+      </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>161.35859061194137</v>
+      </c>
+      <c r="E16">
+        <v>300</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>161.35859061194137</v>
+      </c>
+      <c r="E17">
+        <v>300</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>161.35859061194137</v>
+      </c>
+      <c r="E18">
+        <v>300</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>161.35859061194137</v>
+      </c>
+      <c r="E19">
+        <v>300</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>116.35859061194134</v>
+      </c>
+      <c r="E20">
+        <v>300</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21">
+        <v>300</v>
+      </c>
+      <c r="F21">
+        <v>4.4370842999999997E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>300</v>
+      </c>
+      <c r="F22">
+        <v>2.720478942575856E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>132.61995032132856</v>
+      </c>
+      <c r="E23">
+        <v>300</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>146.80706360755551</v>
+      </c>
+      <c r="E24">
+        <v>300</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>171.5</v>
+      </c>
+      <c r="E25">
+        <v>300</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <v>161.5</v>
+      </c>
+      <c r="E26">
+        <v>300</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>151.5</v>
+      </c>
+      <c r="E27">
+        <v>300</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>140.5</v>
+      </c>
+      <c r="E28">
+        <v>300</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>130.17000000000002</v>
+      </c>
+      <c r="E29">
+        <v>300</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>300</v>
+      </c>
+      <c r="F30">
+        <v>3.818048257322299E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>300</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <v>126.16</v>
+      </c>
+      <c r="E32">
+        <v>300</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>117.66</v>
+      </c>
+      <c r="E33">
+        <v>300</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>108.16</v>
+      </c>
+      <c r="E34">
+        <v>300</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>104.16</v>
+      </c>
+      <c r="E35">
+        <v>300</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>101.83</v>
+      </c>
+      <c r="E36">
+        <v>300</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+      <c r="D37">
+        <v>101.83</v>
+      </c>
+      <c r="E37">
+        <v>300</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="D38">
+        <v>100.83</v>
+      </c>
+      <c r="E38">
+        <v>300</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>300</v>
+      </c>
+      <c r="F39">
+        <v>3.6335324596160797E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:F39" xr:uid="{1007D58E-6627-4E69-AB03-F5F2C094257F}"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{9B6C00CE-99A3-4E5A-B482-9DF5F990A805}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E25E50E-DE91-4143-B6E9-C9189EDF6AB1}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:C7" xr:uid="{4FE0AF73-F9DA-4E8B-A5E1-550915E56BD9}"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{8D45159E-3629-4A1B-A77E-4503D33C50B4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B779A93-618B-4AA1-ABF4-8E1DE9523DE0}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:B7" xr:uid="{7A607326-FB4F-4E4D-AF7D-7BBC41B4A9E8}"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{953388AE-1AF2-401C-B0BA-5FD6A1EAB195}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8C39D0-8368-4725-82F3-19D1AC17A12B}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -10345,2745 +13321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47420144-7A0E-4B46-BA30-AD0282346642}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A3:A7" xr:uid="{113FB8C6-29D6-4F3B-8DC1-BEBBC93C929B}"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{48C47EB2-49C8-4BA5-B1CF-3ED99ED12B2D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB2BD8E-7885-412B-851B-91487E80D0AD}">
-  <dimension ref="A1:F39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="6" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>90.17</v>
-      </c>
-      <c r="D4">
-        <v>90.169999999999987</v>
-      </c>
-      <c r="E4">
-        <v>90.17</v>
-      </c>
-      <c r="F4">
-        <v>-3.6335324596160797E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5">
-        <v>-5</v>
-      </c>
-      <c r="D5">
-        <v>-5</v>
-      </c>
-      <c r="E5">
-        <v>-5</v>
-      </c>
-      <c r="F5">
-        <v>-3.6335324596160797E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6">
-        <v>-3.67</v>
-      </c>
-      <c r="D6">
-        <v>-3.6700000000000017</v>
-      </c>
-      <c r="E6">
-        <v>-3.67</v>
-      </c>
-      <c r="F6">
-        <v>-3.6335324596160797E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>-6.5</v>
-      </c>
-      <c r="D7">
-        <v>-6.5</v>
-      </c>
-      <c r="E7">
-        <v>-6.5</v>
-      </c>
-      <c r="F7">
-        <v>-3.6335324596160797E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>-5.67</v>
-      </c>
-      <c r="D8">
-        <v>-5.6700000000000017</v>
-      </c>
-      <c r="E8">
-        <v>-5.67</v>
-      </c>
-      <c r="F8">
-        <v>-3.6335324596160797E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9">
-        <v>-7.5</v>
-      </c>
-      <c r="D9">
-        <v>-7.5</v>
-      </c>
-      <c r="E9">
-        <v>-7.5</v>
-      </c>
-      <c r="F9">
-        <v>-3.6335324596160797E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10">
-        <v>-3</v>
-      </c>
-      <c r="D10">
-        <v>-3</v>
-      </c>
-      <c r="E10">
-        <v>-3</v>
-      </c>
-      <c r="F10">
-        <v>-3.6335324596160797E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11">
-        <v>-3</v>
-      </c>
-      <c r="D11">
-        <v>-3</v>
-      </c>
-      <c r="E11">
-        <v>-3</v>
-      </c>
-      <c r="F11">
-        <v>-3.6335324596160797E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <v>-2</v>
-      </c>
-      <c r="D12">
-        <v>-2</v>
-      </c>
-      <c r="E12">
-        <v>-2</v>
-      </c>
-      <c r="F12">
-        <v>-3.6335324596160797E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>55.17</v>
-      </c>
-      <c r="D13">
-        <v>55.17</v>
-      </c>
-      <c r="E13">
-        <v>55.17</v>
-      </c>
-      <c r="F13">
-        <v>-5.1314995538397495E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14">
-        <v>-18</v>
-      </c>
-      <c r="D14">
-        <v>-17.999999999999915</v>
-      </c>
-      <c r="E14">
-        <v>-18</v>
-      </c>
-      <c r="F14">
-        <v>-4.2807634691293551E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>2.8421709430404007E-14</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>-4.3412781382943175E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>-4.3883557753459888E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>-4.4370842999999997E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>-4.4370842999999997E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>-4.4370842999999997E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20">
-        <v>-45</v>
-      </c>
-      <c r="D20">
-        <v>-45.000000000000028</v>
-      </c>
-      <c r="E20">
-        <v>-45</v>
-      </c>
-      <c r="F20">
-        <v>-4.4370842999999997E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21">
-        <v>-51.67</v>
-      </c>
-      <c r="D21">
-        <v>-51.669999999999987</v>
-      </c>
-      <c r="E21">
-        <v>-51.67</v>
-      </c>
-      <c r="F21">
-        <v>-4.4370842999999997E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22">
-        <v>86</v>
-      </c>
-      <c r="D22">
-        <v>86</v>
-      </c>
-      <c r="E22">
-        <v>86</v>
-      </c>
-      <c r="F22">
-        <v>-3.8452530467483551E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23">
-        <v>-13.33</v>
-      </c>
-      <c r="D23">
-        <v>-13.329999999999956</v>
-      </c>
-      <c r="E23">
-        <v>-13.33</v>
-      </c>
-      <c r="F23">
-        <v>-3.8180482573225965E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24">
-        <v>-25.5</v>
-      </c>
-      <c r="D24">
-        <v>-25.5</v>
-      </c>
-      <c r="E24">
-        <v>-25.5</v>
-      </c>
-      <c r="F24">
-        <v>-3.8180482573225965E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25">
-        <v>-11</v>
-      </c>
-      <c r="D25">
-        <v>-10.999999999999972</v>
-      </c>
-      <c r="E25">
-        <v>-11</v>
-      </c>
-      <c r="F25">
-        <v>-3.818048257322299E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26">
-        <v>-10</v>
-      </c>
-      <c r="D26">
-        <v>-10</v>
-      </c>
-      <c r="E26">
-        <v>-10</v>
-      </c>
-      <c r="F26">
-        <v>-3.818048257322299E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27">
-        <v>-10</v>
-      </c>
-      <c r="D27">
-        <v>-10</v>
-      </c>
-      <c r="E27">
-        <v>-10</v>
-      </c>
-      <c r="F27">
-        <v>-3.818048257322299E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28">
-        <v>-11</v>
-      </c>
-      <c r="D28">
-        <v>-11</v>
-      </c>
-      <c r="E28">
-        <v>-11</v>
-      </c>
-      <c r="F28">
-        <v>-3.818048257322299E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29">
-        <v>-10.33</v>
-      </c>
-      <c r="D29">
-        <v>-10.329999999999984</v>
-      </c>
-      <c r="E29">
-        <v>-10.33</v>
-      </c>
-      <c r="F29">
-        <v>-3.818048257322299E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30">
-        <v>-30.17</v>
-      </c>
-      <c r="D30">
-        <v>-30.170000000000016</v>
-      </c>
-      <c r="E30">
-        <v>-30.17</v>
-      </c>
-      <c r="F30">
-        <v>-3.818048257322299E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31">
-        <v>99</v>
-      </c>
-      <c r="D31">
-        <v>99</v>
-      </c>
-      <c r="E31">
-        <v>99</v>
-      </c>
-      <c r="F31">
-        <v>-3.6335324596160797E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32">
-        <v>-1</v>
-      </c>
-      <c r="D32">
-        <v>-1</v>
-      </c>
-      <c r="E32">
-        <v>-1</v>
-      </c>
-      <c r="F32">
-        <v>-3.6335324596160797E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33">
-        <v>-8.5</v>
-      </c>
-      <c r="D33">
-        <v>-8.5</v>
-      </c>
-      <c r="E33">
-        <v>-8.5</v>
-      </c>
-      <c r="F33">
-        <v>-3.6335324596160797E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34">
-        <v>-9.5</v>
-      </c>
-      <c r="D34">
-        <v>-9.5</v>
-      </c>
-      <c r="E34">
-        <v>-9.5</v>
-      </c>
-      <c r="F34">
-        <v>-3.6335324596160797E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35">
-        <v>-4</v>
-      </c>
-      <c r="D35">
-        <v>-4</v>
-      </c>
-      <c r="E35">
-        <v>-4</v>
-      </c>
-      <c r="F35">
-        <v>-3.6335324596160797E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36">
-        <v>-2.33</v>
-      </c>
-      <c r="D36">
-        <v>-2.3299999999999983</v>
-      </c>
-      <c r="E36">
-        <v>-2.33</v>
-      </c>
-      <c r="F36">
-        <v>-3.6335324596160797E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>-3.6335324596160797E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38">
-        <v>-1</v>
-      </c>
-      <c r="D38">
-        <v>-1</v>
-      </c>
-      <c r="E38">
-        <v>-1</v>
-      </c>
-      <c r="F38">
-        <v>-3.6335324596160797E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39">
-        <v>-0.83</v>
-      </c>
-      <c r="D39">
-        <v>-0.82999999999999829</v>
-      </c>
-      <c r="E39">
-        <v>-0.83</v>
-      </c>
-      <c r="F39">
-        <v>-3.6335324596160797E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A3:F39" xr:uid="{66484FEE-57AD-4A8E-A1A8-2D79AAE6A0C0}"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F8C544D8-128B-488E-99CC-884698A19BCC}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0D909F-AD99-40B4-B968-6D14F4C3C523}">
-  <dimension ref="A1:G30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="7" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.12531185816172649</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.12229667070637884</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.12416089477809557</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.12461788688062453</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>-0.35496674399999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.1756494509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>-0.35496674399999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>-0.35496674399999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.1756494509</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.12531185816172649</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.12229667070637884</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.12416089477809557</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.12461788688062453</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.1756494509</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.1756494509</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>-0.35496674399999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>-0.35496674399999995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>-0.35496674399999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.12531185816172649</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.12229667070637884</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>-0.29101849764068233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>-0.29100208303944014</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>-0.35496674399999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>-0.35496674399999995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>-0.35496674399999995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.1756494509</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.1756494509</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A3:G30" xr:uid="{BC43CD8D-6665-4024-A21A-46D492D0AA72}"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{7C3F9CD1-BD47-4386-AACC-5DAEAE6CAE29}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0C2865-8335-415B-932A-84831494D8DA}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A3:B7" xr:uid="{2920740B-729D-48E3-BD0F-EFCFF92EC5C7}"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6FC1DEE0-692F-432B-9FDA-380927E807F1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E512A8D9-A6A5-4F38-9403-FB6CBB887012}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A3:A12" xr:uid="{11FFBC6D-0C3B-4892-8512-F75F5FA865EF}"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{01AAA771-1FDC-4A8F-80CD-8AF0BCAAE88E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18777AF-99D4-4E67-A783-1869D9ABC60C}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>2.9159999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>2.9159999999999998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>2.9159999999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>2.9159999999999998E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
-        <v>4.6089999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9">
-        <v>4.6089999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10">
-        <v>4.6089999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11">
-        <v>4.6089999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12">
-        <v>4.6089999999999999E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A3:B12" xr:uid="{1116C02E-8DF4-4591-B8C0-CF2C7B2C86A5}"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3BC56E1D-BF6B-4E50-B9FF-296BC5AA5C05}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C77284A-0324-4293-A49A-3BC63F17B9BD}">
-  <dimension ref="A1:F39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="6" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>117.78144069934325</v>
-      </c>
-      <c r="E4">
-        <v>300</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>131.34</v>
-      </c>
-      <c r="E5">
-        <v>300</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>127.67</v>
-      </c>
-      <c r="E6">
-        <v>300</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>121.17</v>
-      </c>
-      <c r="E7">
-        <v>300</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8">
-        <v>115.5</v>
-      </c>
-      <c r="E8">
-        <v>300</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9">
-        <v>108</v>
-      </c>
-      <c r="E9">
-        <v>300</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="D10">
-        <v>105</v>
-      </c>
-      <c r="E10">
-        <v>300</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
-      <c r="D11">
-        <v>102</v>
-      </c>
-      <c r="E11">
-        <v>300</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <v>100</v>
-      </c>
-      <c r="E12">
-        <v>300</v>
-      </c>
-      <c r="F12">
-        <v>3.6335324596160797E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-      <c r="D13">
-        <v>100</v>
-      </c>
-      <c r="E13">
-        <v>300</v>
-      </c>
-      <c r="F13">
-        <v>9.2758933684390448E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <v>101.44885203803645</v>
-      </c>
-      <c r="E14">
-        <v>300</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
-      <c r="D15">
-        <v>130.58061319628226</v>
-      </c>
-      <c r="E15">
-        <v>300</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16">
-        <v>100</v>
-      </c>
-      <c r="D16">
-        <v>161.35859061194137</v>
-      </c>
-      <c r="E16">
-        <v>300</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="D17">
-        <v>161.35859061194137</v>
-      </c>
-      <c r="E17">
-        <v>300</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18">
-        <v>100</v>
-      </c>
-      <c r="D18">
-        <v>161.35859061194137</v>
-      </c>
-      <c r="E18">
-        <v>300</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19">
-        <v>100</v>
-      </c>
-      <c r="D19">
-        <v>161.35859061194137</v>
-      </c>
-      <c r="E19">
-        <v>300</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20">
-        <v>116.35859061194134</v>
-      </c>
-      <c r="E20">
-        <v>300</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21">
-        <v>100</v>
-      </c>
-      <c r="D21">
-        <v>100</v>
-      </c>
-      <c r="E21">
-        <v>300</v>
-      </c>
-      <c r="F21">
-        <v>4.4370842999999997E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22">
-        <v>100</v>
-      </c>
-      <c r="D22">
-        <v>100</v>
-      </c>
-      <c r="E22">
-        <v>300</v>
-      </c>
-      <c r="F22">
-        <v>2.720478942575856E-5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
-      <c r="D23">
-        <v>132.61995032132856</v>
-      </c>
-      <c r="E23">
-        <v>300</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-      <c r="D24">
-        <v>146.80706360755551</v>
-      </c>
-      <c r="E24">
-        <v>300</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25">
-        <v>100</v>
-      </c>
-      <c r="D25">
-        <v>171.5</v>
-      </c>
-      <c r="E25">
-        <v>300</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26">
-        <v>100</v>
-      </c>
-      <c r="D26">
-        <v>161.5</v>
-      </c>
-      <c r="E26">
-        <v>300</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27">
-        <v>100</v>
-      </c>
-      <c r="D27">
-        <v>151.5</v>
-      </c>
-      <c r="E27">
-        <v>300</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28">
-        <v>100</v>
-      </c>
-      <c r="D28">
-        <v>140.5</v>
-      </c>
-      <c r="E28">
-        <v>300</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29">
-        <v>100</v>
-      </c>
-      <c r="D29">
-        <v>130.17000000000002</v>
-      </c>
-      <c r="E29">
-        <v>300</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30">
-        <v>100</v>
-      </c>
-      <c r="D30">
-        <v>100</v>
-      </c>
-      <c r="E30">
-        <v>300</v>
-      </c>
-      <c r="F30">
-        <v>3.818048257322299E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31">
-        <v>100</v>
-      </c>
-      <c r="D31">
-        <v>100</v>
-      </c>
-      <c r="E31">
-        <v>300</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32">
-        <v>100</v>
-      </c>
-      <c r="D32">
-        <v>126.16</v>
-      </c>
-      <c r="E32">
-        <v>300</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33">
-        <v>100</v>
-      </c>
-      <c r="D33">
-        <v>117.66</v>
-      </c>
-      <c r="E33">
-        <v>300</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34">
-        <v>100</v>
-      </c>
-      <c r="D34">
-        <v>108.16</v>
-      </c>
-      <c r="E34">
-        <v>300</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35">
-        <v>100</v>
-      </c>
-      <c r="D35">
-        <v>104.16</v>
-      </c>
-      <c r="E35">
-        <v>300</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36">
-        <v>100</v>
-      </c>
-      <c r="D36">
-        <v>101.83</v>
-      </c>
-      <c r="E36">
-        <v>300</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37">
-        <v>100</v>
-      </c>
-      <c r="D37">
-        <v>101.83</v>
-      </c>
-      <c r="E37">
-        <v>300</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38">
-        <v>100</v>
-      </c>
-      <c r="D38">
-        <v>100.83</v>
-      </c>
-      <c r="E38">
-        <v>300</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39">
-        <v>100</v>
-      </c>
-      <c r="D39">
-        <v>100</v>
-      </c>
-      <c r="E39">
-        <v>300</v>
-      </c>
-      <c r="F39">
-        <v>3.6335324596160797E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A3:F39" xr:uid="{1007D58E-6627-4E69-AB03-F5F2C094257F}"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{9B6C00CE-99A3-4E5A-B482-9DF5F990A805}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E25E50E-DE91-4143-B6E9-C9189EDF6AB1}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A3:C7" xr:uid="{4FE0AF73-F9DA-4E8B-A5E1-550915E56BD9}"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{8D45159E-3629-4A1B-A77E-4503D33C50B4}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B779A93-618B-4AA1-ABF4-8E1DE9523DE0}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>300</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A3:B7" xr:uid="{7A607326-FB4F-4E4D-AF7D-7BBC41B4A9E8}"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{953388AE-1AF2-401C-B0BA-5FD6A1EAB195}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340B2619-F556-4C94-BDB8-CFB540FE9B42}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -13159,7 +13397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12B6A03-15C1-47CC-8910-9FA19CB00D15}">
   <dimension ref="A1:F66"/>
   <sheetViews>
@@ -14475,7 +14713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96205D79-6E33-4939-BA1B-F0B37D0669EC}">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -14891,7 +15129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF69B9D-C7A7-4F94-B0A4-DCE017CA4A5A}">
   <dimension ref="A1:F39"/>
   <sheetViews>
@@ -15667,7 +15905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13930A7F-D1D3-4548-96FF-959702BE764F}">
   <dimension ref="A1:H30"/>
   <sheetViews>
@@ -16431,7 +16669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A18DA03-CCD3-451F-A377-04DF75524652}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -16485,210 +16723,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A0FD91-2AC3-4A7A-A1AF-785A25C2F9CC}">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>2.1316282072803006E-14</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>-3.5728534581645154E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>-1.4210854715202004E-14</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>-3.5733172957510837E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>7.1054273576010019E-15</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>-3.6377312205085289E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>-2.8421709430404007E-14</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>-3.6375260379930018E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>-4.4370842999999997E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>-4.4370842999999997E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>-4.4370842999999997E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>-4.4370842999999997E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>-4.4370842999999997E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A3:E12" xr:uid="{488E1562-4AF8-47E4-AF0C-CE4FF459F77C}"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{22C43A58-F65E-4E11-BE1B-BF1EA484516B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>